--- a/Fizyka_Sprawka/Lab2_Cw57c/Final_Sheet/Final_Merged.xlsx
+++ b/Fizyka_Sprawka/Lab2_Cw57c/Final_Sheet/Final_Merged.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clouds\OneDrive\GitHub\TempForSchool\Fizyka_Sprawka\Lab2_Cw57c\Final_OnlyToMerge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clouds\OneDrive\GitHub\TempForSchool\Fizyka_Sprawka\Lab2_Cw57c\Final_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -105,9 +105,6 @@
     <t>8. Na podstawie wartości współczynników kierunkowych (a =gamma IS) linii trendu oraz ich niepewności obliczyć ostateczną (finalną) wartość czułości polowejgammaB ≡ gamma. Oszacować niepewność czułości polowej hallotronu.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nie mogłem znaleźć literatury w której byłaby tabela koncentracji swobodnych nośników ładunku</t>
-  </si>
-  <si>
     <t>10. Uzyskane wartości parametrów gammaB i n porównać z danymi literaturowymi oraz określić rodzaj materiału, z którego wykonany był badany hallotron.</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>9. Obliczyć koncentrację n swobodnych nośników ładunku oraz jej niepewność.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hallotron zosta wytworzony z półprzewodnika.</t>
   </si>
 </sst>
 </file>
@@ -485,24 +485,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -510,52 +492,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -563,47 +500,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -614,15 +518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -636,14 +531,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,8 +672,8 @@
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="965777" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -845,7 +845,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -965,8 +965,8 @@
       <xdr:rowOff>67407</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2395592" cy="265970"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -1205,7 +1205,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -1404,8 +1404,8 @@
       <xdr:rowOff>26091</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1749390" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -1574,7 +1574,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -1682,8 +1682,8 @@
       <xdr:rowOff>64572</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2860114" cy="172087"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1775,7 +1775,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1859,8 +1859,8 @@
       <xdr:rowOff>117974</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1279196" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -2044,7 +2044,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -2122,8 +2122,8 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="419730" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -2196,7 +2196,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -2269,8 +2269,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1980029" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -2540,7 +2540,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -2671,8 +2671,8 @@
       <xdr:rowOff>3049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="385234" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -2800,7 +2800,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -2892,8 +2892,8 @@
       <xdr:rowOff>13324</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532582" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -3047,7 +3047,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -3112,8 +3112,8 @@
       <xdr:rowOff>70018</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2801748" cy="550728"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -3654,7 +3654,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -3908,8 +3908,8 @@
       <xdr:rowOff>80529</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2787295" cy="550728"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -4422,7 +4422,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -4676,8 +4676,8 @@
       <xdr:rowOff>173091</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2291909" cy="350865"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -5206,7 +5206,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -5385,8 +5385,8 @@
       <xdr:rowOff>43355</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2558714" cy="322396"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -5896,7 +5896,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -6063,8 +6063,8 @@
       <xdr:rowOff>106089</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2561342" cy="350865"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -6648,7 +6648,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -6827,8 +6827,8 @@
       <xdr:rowOff>150987</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4467225" cy="1001538"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -8410,7 +8410,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -9134,8 +9134,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="505908" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -9265,7 +9265,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -9357,8 +9357,8 @@
       <xdr:rowOff>167701</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1163652" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -9527,7 +9527,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -9598,8 +9598,8 @@
       <xdr:rowOff>172915</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="172611" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -9693,7 +9693,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -9758,8 +9758,8 @@
       <xdr:rowOff>178776</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="175882" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -9853,7 +9853,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -9918,8 +9918,8 @@
       <xdr:rowOff>16853</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="374911" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -10049,7 +10049,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -10126,8 +10126,8 @@
       <xdr:rowOff>8059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="377475" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -10257,7 +10257,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -10334,8 +10334,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="520462" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -10479,7 +10479,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -10570,8 +10570,8 @@
       <xdr:rowOff>181708</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="517193" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -10715,7 +10715,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -10811,8 +10811,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="445507" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -10907,7 +10907,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -10978,8 +10978,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2516286" cy="264688"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -11278,7 +11278,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -11507,8 +11507,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2423420" cy="243849"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -11675,7 +11675,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -11752,8 +11752,8 @@
       <xdr:rowOff>58544</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3440989" cy="570106"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -12214,6 +12214,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12274,7 +12275,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -12476,8 +12477,8 @@
       <xdr:rowOff>21431</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4302845" cy="179665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -12727,7 +12728,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -12868,8 +12869,8 @@
       <xdr:rowOff>22949</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="597279" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -12996,7 +12997,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -13063,8 +13064,8 @@
       <xdr:rowOff>15478</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1552575" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -13352,7 +13353,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -13519,8 +13520,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2444836" cy="243849"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -13687,7 +13688,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -13764,8 +13765,8 @@
       <xdr:rowOff>7473</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2877617" cy="506878"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -14275,7 +14276,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -14571,8 +14572,8 @@
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4562475" cy="171451"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -14879,7 +14880,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -15106,8 +15107,8 @@
       <xdr:rowOff>14203</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4446331" cy="435853"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -16236,7 +16237,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -16892,8 +16893,8 @@
       <xdr:rowOff>20240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4454296" cy="349968"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -17201,7 +17202,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -17386,8 +17387,8 @@
       <xdr:rowOff>73819</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3467488" cy="267702"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -17725,7 +17726,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -17935,8 +17936,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4886325" cy="463522"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -19013,7 +19014,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -19623,8 +19624,8 @@
       <xdr:rowOff>20611</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3906892" cy="477071"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -20668,7 +20669,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -21294,8 +21295,8 @@
       <xdr:rowOff>110729</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4496167" cy="349070"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -21633,7 +21634,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -21842,8 +21843,8 @@
       <xdr:rowOff>34529</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4105274" cy="2137171"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -23885,7 +23886,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -25164,8 +25165,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="482312" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -25271,7 +25272,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -25336,8 +25337,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="452368" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -25450,7 +25451,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -25522,8 +25523,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="290528" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -25629,7 +25630,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -25694,8 +25695,8 @@
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="377539" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -25755,7 +25756,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -25822,8 +25823,8 @@
       <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="355354" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -25883,7 +25884,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -25950,8 +25951,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="212301" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -26026,7 +26027,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -26091,8 +26092,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2390719" cy="285751"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -26331,7 +26332,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -26487,8 +26488,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2390719" cy="285751"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -26727,7 +26728,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -26883,8 +26884,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2803781" cy="265970"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -27311,7 +27312,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -27568,8 +27569,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4486741" cy="525272"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -28120,7 +28121,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -28318,8 +28319,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4972050" cy="238125"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -28952,7 +28953,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -29192,8 +29193,8 @@
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2590800" cy="266700"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -29511,7 +29512,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -29745,8 +29746,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4676775" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -30283,7 +30284,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -30711,8 +30712,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5610225" cy="1343025"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -31964,7 +31965,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -32773,8 +32774,8 @@
       <xdr:rowOff>187359</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="179728" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -32868,7 +32869,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -32945,8 +32946,8 @@
       <xdr:rowOff>5442</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="438838" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -33100,7 +33101,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -33213,8 +33214,8 @@
       <xdr:rowOff>6061</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="299441" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -33316,7 +33317,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -33405,8 +33406,8 @@
       <xdr:rowOff>187569</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="307969" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -33478,7 +33479,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -33552,8 +33553,8 @@
       <xdr:rowOff>18317</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="830035" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -33639,7 +33640,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -33719,8 +33720,8 @@
       <xdr:rowOff>4330</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="290657" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -33792,7 +33793,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -33864,8 +33865,77 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="290657" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1219200" y="381000"/>
+              <a:ext cx="290657" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>[</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝜇</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑚</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>]</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -33902,76 +33972,6 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr/>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>[</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>𝜇</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>𝑚</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100"/>
-                <a:t>]</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 7"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1219200" y="381000"/>
-              <a:ext cx="290657" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -34012,8 +34012,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5372100" cy="276225"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -34502,7 +34502,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -34879,8 +34879,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4049516" cy="267061"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -35391,7 +35391,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -35729,8 +35729,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2373855" cy="267061"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -36071,7 +36071,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -36291,8 +36291,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3600450" cy="267061"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -36726,7 +36726,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -37052,8 +37052,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2320700" cy="246927"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -37378,7 +37378,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -37586,8 +37586,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2301586" cy="201757"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -37820,7 +37820,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -38024,8 +38024,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1364669" cy="179665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -38228,7 +38228,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -38414,8 +38414,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4853420" cy="762000"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -39662,7 +39662,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -40776,48 +40776,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="30"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="30"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="38" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1"/>
@@ -40829,10 +40829,10 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="37">
+      <c r="D5" s="16">
         <v>3.05</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="15">
         <f>DEGREES(D5)</f>
         <v>174.75212751490108</v>
       </c>
@@ -40842,67 +40842,67 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="26"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="33"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="30"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="30"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="30"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="29"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -40943,374 +40943,374 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="26"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="67"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="23"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="20"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="20"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="61"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14">
+      <c r="A20" s="9"/>
+      <c r="B20" s="8">
         <v>0.5</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10">
         <v>0.05</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8">
         <v>2.8867513459481202</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="14">
+      <c r="A23" s="9"/>
+      <c r="B23" s="8">
         <v>2.8867513459481202</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="10"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="7"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="7"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="7"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="7"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="7"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="49"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="7"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="7"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="49"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="7"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="7"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="49"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="7"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="7"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="49"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="7"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="49"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="7"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="49"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="7"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="49"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="7"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="7"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="7"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="49"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="7"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="49"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="7"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="49"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -41420,95 +41420,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="30"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="30"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="30"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="30"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="30"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="30"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
@@ -41519,37 +41519,37 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="56">
+      <c r="A9" s="21"/>
+      <c r="B9" s="27">
         <v>3.9068999999999998</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="55"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="51">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22">
         <v>-348.91</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="49"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -41557,19 +41557,19 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="52">
+      <c r="A11" s="21"/>
+      <c r="B11" s="23">
         <v>7.6029999999999999E-4</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="49"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="75"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -41577,19 +41577,19 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="51">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22">
         <v>9.3939999999999996E-2</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="49"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="75"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -41597,8 +41597,8 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="47">
+      <c r="A13" s="21"/>
+      <c r="B13" s="20">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C13" s="1"/>
@@ -41615,8 +41615,8 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="47">
+      <c r="A14" s="21"/>
+      <c r="B14" s="20">
         <v>9.4E-2</v>
       </c>
       <c r="C14" s="1"/>
@@ -41628,10 +41628,10 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="69">
         <v>-0.99911207834369453</v>
       </c>
       <c r="C15" s="1"/>
@@ -41643,8 +41643,8 @@
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -41654,8 +41654,8 @@
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -41665,86 +41665,86 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="41"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="33"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="30"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="30"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="30"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="41"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A22:I23"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
     <mergeCell ref="A1:I7"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A19:I21"/>
-    <mergeCell ref="A22:I23"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41766,67 +41766,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="68"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="68"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="68"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="68"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="68"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1"/>
@@ -41837,8 +41837,8 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="66">
+      <c r="A7" s="21"/>
+      <c r="B7" s="34">
         <v>12</v>
       </c>
       <c r="C7" s="1"/>
@@ -41849,10 +41849,10 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="33">
         <v>-0.41081288599999999</v>
       </c>
       <c r="C8" s="1"/>
@@ -41863,10 +41863,10 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="33">
         <f>-0.410812886*1000</f>
         <v>-410.81288599999999</v>
       </c>
@@ -41878,10 +41878,10 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="31">
         <v>152.19999999999999</v>
       </c>
       <c r="C10" s="1"/>
@@ -41892,14 +41892,14 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="60"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -41915,7 +41915,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="62"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -41942,14 +41942,14 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="60"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -41972,14 +41972,14 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="60"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -42012,14 +42012,14 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="60"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
@@ -42035,7 +42035,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="61"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -42052,14 +42052,14 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="60"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
@@ -42222,38 +42222,38 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="57"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="78"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="30"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="55"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="43"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="41"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -42278,39 +42278,39 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="30"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="41"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -42404,15 +42404,15 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="60"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -42448,15 +42448,15 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="60"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -42492,15 +42492,15 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="60"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -42547,15 +42547,15 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="60"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
@@ -42635,96 +42635,96 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="23"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="58"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="20"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="20"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="61"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="20"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="20"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="61"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="30"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="30"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="55"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="41"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -42743,7 +42743,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42753,26 +42753,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>31</v>
+      <c r="A1" s="79" t="s">
+        <v>30</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="81"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -42780,11 +42780,11 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
-        <v>30</v>
+      <c r="A3" s="21" t="s">
+        <v>29</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="78"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -42792,12 +42792,12 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
-        <v>29</v>
+      <c r="A4" s="21" t="s">
+        <v>28</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="76" t="s">
-        <v>28</v>
+      <c r="B4" s="42"/>
+      <c r="C4" s="41" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -42806,12 +42806,12 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="75">
+      <c r="A5" s="21"/>
+      <c r="B5" s="40">
         <v>353.2944756</v>
       </c>
-      <c r="C5" s="74" t="s">
-        <v>27</v>
+      <c r="C5" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -42820,11 +42820,11 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="75">
+      <c r="A6" s="21"/>
+      <c r="B6" s="40">
         <v>0.1</v>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -42832,12 +42832,12 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="73">
+      <c r="A7" s="21"/>
+      <c r="B7" s="38">
         <v>34</v>
       </c>
-      <c r="C7" s="72" t="s">
-        <v>27</v>
+      <c r="C7" s="37" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -42849,11 +42849,11 @@
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="60"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -42866,14 +42866,14 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="60"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -42906,14 +42906,14 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="60"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -42946,14 +42946,14 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="60"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -43016,58 +43016,58 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="71"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="69"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="84"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>26</v>
+      <c r="A26" s="50" t="s">
+        <v>25</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="33"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="41"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="73"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>25</v>
+      <c r="A28" s="50" t="s">
+        <v>31</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="33"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="41"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="5">
